--- a/pred_ohlcv/54_21/2019-11-15 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 FAB ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-2357527.297437828</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1879356.525195313</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1883959.550995313</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1891828.850995313</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1732275.767267491</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>167062.5419032744</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -912,7 +912,7 @@
         <v>6908503.929221612</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>6835575.512721612</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>6454558.604621612</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>6379766.493821613</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6131544.781421613</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6157888.672021613</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5995264.614621612</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>5995264.614621612</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>6295022.826921612</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>6293260.286321612</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>6293260.286321612</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>6016344.667221612</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>6447826.230721612</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>6506062.304921612</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>7568465.087221612</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>7970303.372666056</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>9299111.228820153</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>8663774.656320153</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>8663694.656320153</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>8412035.049420152</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>9180042.180020154</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>10842418.57554046</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>10937911.73358295</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>12100533.95168295</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>13305612.09558295</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>13386575.62768295</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>13243793.71648295</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>13243863.71278295</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>13170294.45598295</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>13095434.29988295</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>13095434.29988295</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>13095534.29988295</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>13029387.92848295</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>13304500.88188295</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>13297705.88038295</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>13209695.27638295</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>13209695.27638295</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>13523122.25258295</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>13421751.39458295</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>11987294.30948295</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>12311637.30278295</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>12287945.93978295</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>12186272.36438295</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>17245679.86003825</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>15992530.76153825</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>15996306.45203825</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>16016934.85283826</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>16017089.85283826</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-15 FAB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-15 FAB ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>-1883959.550995313</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-1891828.850995313</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1732275.767267491</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>167062.5419032744</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -912,7 +912,7 @@
         <v>6908503.929221612</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>6835575.512721612</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>6454558.604621612</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>6379766.493821613</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>6131544.781421613</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6157888.672021613</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>5995264.614621612</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>5995264.614621612</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>6295022.826921612</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>6293260.286321612</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>6293260.286321612</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>6016344.667221612</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>6447826.230721612</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>6506062.304921612</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>7568465.087221612</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>7970303.372666056</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>9299111.228820153</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>8663774.656320153</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>8663694.656320153</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>8412035.049420152</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>9180042.180020154</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>10842418.57554046</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>10937911.73358295</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>12100533.95168295</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>13243793.71648295</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>13243863.71278295</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>13170294.45598295</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>13095434.29988295</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>13095434.29988295</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>13095534.29988295</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>13029387.92848295</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>13293761.01948295</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>13304500.88188295</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>13297705.88038295</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>13209695.27638295</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>13209695.27638295</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>13523122.25258295</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>13421751.39458295</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>11987294.30948295</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>12311637.30278295</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>12287945.93978295</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>12186272.36438295</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>17451159.31203825</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>17245679.86003825</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>15992530.76153825</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>15996306.45203825</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>16017089.85283826</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
